--- a/deprecated/devis_Dynata.xlsx
+++ b/deprecated/devis_Dynata.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dynatallc-my.sharepoint.com/personal/isabelle_renault_dynatacorp_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabre\Documents\www\robustness_global_redistr\deprecated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1631ECFC-FE9D-4FA0-B420-CF71FF8DCAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9207DA3B-0957-4C64-9A9C-D1A18318808D}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sans Prog" sheetId="2" r:id="rId1"/>
     <sheet name="Avec Prog " sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,14 +134,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="166" formatCode="#,##0.0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,7 +273,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,11 +375,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -711,31 +713,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D69DA7-6C7C-4E54-B752-D28741A85509}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="2"/>
-    <col min="2" max="2" width="3.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.453125" style="2"/>
-    <col min="7" max="7" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="3.1796875" style="2" customWidth="1"/>
-    <col min="11" max="12" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.453125" style="2"/>
-    <col min="15" max="15" width="10.08984375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="3.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.5" style="2"/>
+    <col min="7" max="7" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="3.125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5" style="2"/>
+    <col min="15" max="15" width="10.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:17" ht="15" thickBot="1"/>
+    <row r="2" spans="3:17" ht="15" thickBot="1">
       <c r="C2" s="32" t="s">
         <v>20</v>
       </c>
@@ -756,7 +758,7 @@
       <c r="P2" s="33"/>
       <c r="Q2" s="34"/>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:17" ht="15">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -794,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:17">
       <c r="C5" s="31" t="s">
         <v>6</v>
       </c>
@@ -836,7 +838,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:17">
       <c r="C6" s="31" t="s">
         <v>13</v>
       </c>
@@ -878,7 +880,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:17">
       <c r="C7" s="31" t="s">
         <v>19</v>
       </c>
@@ -920,7 +922,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:17" ht="15">
       <c r="C8" s="3"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -954,7 +956,7 @@
         <v>1835.3999999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:17">
       <c r="C9" s="14"/>
       <c r="D9" s="12"/>
       <c r="E9" s="15"/>
@@ -983,7 +985,7 @@
         <v>2410.3999999999996</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:17">
       <c r="C10" s="14"/>
       <c r="D10" s="12"/>
       <c r="E10" s="15"/>
@@ -1012,7 +1014,7 @@
         <v>1738.8</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:17">
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="L11" s="31" t="s">
@@ -1035,7 +1037,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:17">
       <c r="C12" s="14"/>
       <c r="D12" s="12"/>
       <c r="E12" s="15"/>
@@ -1064,7 +1066,7 @@
         <v>1386.8999999999999</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:17">
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
       <c r="E13" s="15"/>
@@ -1093,7 +1095,7 @@
         <v>1688.4</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:17">
       <c r="C14" s="14"/>
       <c r="D14" s="12"/>
       <c r="E14" s="15"/>
@@ -1122,7 +1124,7 @@
         <v>1899.8</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:17" ht="15">
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="L15" s="3"/>
@@ -1137,7 +1139,7 @@
         <v>4975.1000000000004</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:17" ht="15">
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -1151,7 +1153,7 @@
       <c r="P16" s="20"/>
       <c r="Q16" s="22"/>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:17">
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:17" ht="15.75" thickBot="1">
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -1191,7 +1193,7 @@
       <c r="P18" s="20"/>
       <c r="Q18" s="22"/>
     </row>
-    <row r="19" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:17" ht="15.75" thickBot="1">
       <c r="C19" s="5" t="s">
         <v>4</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>5975.1</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:17" ht="15">
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
@@ -1229,7 +1231,7 @@
       <c r="P20" s="20"/>
       <c r="Q20" s="22"/>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:17" ht="15">
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -1243,7 +1245,7 @@
       <c r="P21" s="20"/>
       <c r="Q21" s="22"/>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:17" ht="15">
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -1257,11 +1259,11 @@
       <c r="P22" s="20"/>
       <c r="Q22" s="22"/>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:17" ht="15">
       <c r="Q24" s="22"/>
     </row>
-    <row r="25" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:17" ht="15" thickBot="1"/>
+    <row r="26" spans="3:17" ht="15" thickBot="1">
       <c r="C26" s="32" t="s">
         <v>22</v>
       </c>
@@ -1282,7 +1284,7 @@
       <c r="P26" s="33"/>
       <c r="Q26" s="34"/>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:17" ht="15">
       <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
@@ -1320,7 +1322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:17">
       <c r="C29" s="31" t="s">
         <v>6</v>
       </c>
@@ -1362,7 +1364,7 @@
         <v>6899.9999999999991</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:17">
       <c r="C30" s="31" t="s">
         <v>13</v>
       </c>
@@ -1404,7 +1406,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:17">
       <c r="C31" s="31" t="s">
         <v>19</v>
       </c>
@@ -1446,7 +1448,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:17" ht="15">
       <c r="C32" s="3"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
@@ -1480,7 +1482,7 @@
         <v>2074.8000000000002</v>
       </c>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:17">
       <c r="C33" s="14"/>
       <c r="D33" s="12"/>
       <c r="E33" s="15"/>
@@ -1509,7 +1511,7 @@
         <v>2724.8</v>
       </c>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:17">
       <c r="C34" s="14"/>
       <c r="D34" s="12"/>
       <c r="E34" s="15"/>
@@ -1538,7 +1540,7 @@
         <v>1965.6000000000001</v>
       </c>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:17">
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="L35" s="31" t="s">
@@ -1561,7 +1563,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:17">
       <c r="C36" s="14"/>
       <c r="D36" s="12"/>
       <c r="E36" s="15"/>
@@ -1590,7 +1592,7 @@
         <v>1567.8</v>
       </c>
     </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:17">
       <c r="C37" s="14"/>
       <c r="D37" s="12"/>
       <c r="E37" s="15"/>
@@ -1619,7 +1621,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:17">
       <c r="C38" s="14"/>
       <c r="D38" s="12"/>
       <c r="E38" s="15"/>
@@ -1648,7 +1650,7 @@
         <v>2147.6</v>
       </c>
     </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:17" ht="15">
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="L39" s="3"/>
@@ -1663,11 +1665,11 @@
         <v>34556.6</v>
       </c>
     </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:17">
       <c r="H40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:17">
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
@@ -1693,8 +1695,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:17" ht="15" thickBot="1"/>
+    <row r="43" spans="3:17" ht="15.75" thickBot="1">
       <c r="C43" s="5" t="s">
         <v>4</v>
       </c>
@@ -1718,8 +1720,8 @@
         <v>35556.6</v>
       </c>
     </row>
-    <row r="49" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="50" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:17" ht="15" thickBot="1"/>
+    <row r="50" spans="3:17" ht="15" thickBot="1">
       <c r="C50" s="32" t="s">
         <v>24</v>
       </c>
@@ -1740,7 +1742,7 @@
       <c r="P50" s="33"/>
       <c r="Q50" s="34"/>
     </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:17" ht="15">
       <c r="C52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1778,7 +1780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:17">
       <c r="C53" s="31" t="s">
         <v>6</v>
       </c>
@@ -1820,7 +1822,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:17">
       <c r="C54" s="31" t="s">
         <v>13</v>
       </c>
@@ -1862,7 +1864,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:17">
       <c r="C55" s="31" t="s">
         <v>19</v>
       </c>
@@ -1904,7 +1906,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:17" ht="15">
       <c r="C56" s="3"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -1938,7 +1940,7 @@
         <v>2553.6000000000004</v>
       </c>
     </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:17">
       <c r="C57" s="14"/>
       <c r="D57" s="12"/>
       <c r="E57" s="15"/>
@@ -1967,7 +1969,7 @@
         <v>3353.6000000000004</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:17">
       <c r="C58" s="14"/>
       <c r="D58" s="12"/>
       <c r="E58" s="15"/>
@@ -1996,7 +1998,7 @@
         <v>2419.2000000000003</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:17">
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="L59" s="31" t="s">
@@ -2019,7 +2021,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:17">
       <c r="C60" s="14"/>
       <c r="D60" s="12"/>
       <c r="E60" s="15"/>
@@ -2048,7 +2050,7 @@
         <v>1929.6000000000001</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:17">
       <c r="C61" s="14"/>
       <c r="D61" s="12"/>
       <c r="E61" s="15"/>
@@ -2077,7 +2079,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:17">
       <c r="C62" s="14"/>
       <c r="D62" s="12"/>
       <c r="E62" s="15"/>
@@ -2106,7 +2108,7 @@
         <v>2643.2000000000003</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:17" ht="15">
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="L63" s="3"/>
@@ -2121,11 +2123,11 @@
         <v>41244.19999999999</v>
       </c>
     </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:17">
       <c r="H64" s="4"/>
       <c r="Q64" s="4"/>
     </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:17">
       <c r="C65" s="2" t="s">
         <v>7</v>
       </c>
@@ -2151,8 +2153,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="67" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="3:17" ht="15" thickBot="1"/>
+    <row r="67" spans="3:17" ht="15.75" thickBot="1">
       <c r="C67" s="5" t="s">
         <v>4</v>
       </c>
@@ -2176,8 +2178,14 @@
         <v>42244.19999999999</v>
       </c>
     </row>
-    <row r="72" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="73" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="3:17">
+      <c r="Q68" s="35">
+        <f>Q67-Q55</f>
+        <v>33744.19999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="3:17" ht="15" thickBot="1"/>
+    <row r="73" spans="3:17" ht="15" thickBot="1">
       <c r="C73" s="32" t="s">
         <v>26</v>
       </c>
@@ -2198,7 +2206,7 @@
       <c r="P73" s="33"/>
       <c r="Q73" s="34"/>
     </row>
-    <row r="75" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:17" ht="15">
       <c r="C75" s="1" t="s">
         <v>1</v>
       </c>
@@ -2236,7 +2244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:17">
       <c r="C76" s="31" t="s">
         <v>6</v>
       </c>
@@ -2278,7 +2286,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="77" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:17">
       <c r="C77" s="31" t="s">
         <v>13</v>
       </c>
@@ -2320,7 +2328,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="78" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:17">
       <c r="C78" s="31" t="s">
         <v>19</v>
       </c>
@@ -2362,7 +2370,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="79" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:17" ht="15">
       <c r="C79" s="3"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
@@ -2396,7 +2404,7 @@
         <v>3112.2</v>
       </c>
     </row>
-    <row r="80" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:17">
       <c r="C80" s="14"/>
       <c r="D80" s="12"/>
       <c r="E80" s="15"/>
@@ -2425,7 +2433,7 @@
         <v>4087.2</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:17">
       <c r="C81" s="14"/>
       <c r="D81" s="12"/>
       <c r="E81" s="15"/>
@@ -2454,7 +2462,7 @@
         <v>2948.4</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:17">
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="L82" s="31" t="s">
@@ -2477,7 +2485,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:17">
       <c r="C83" s="14"/>
       <c r="D83" s="12"/>
       <c r="E83" s="15"/>
@@ -2506,7 +2514,7 @@
         <v>2351.6999999999998</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:17">
       <c r="C84" s="14"/>
       <c r="D84" s="12"/>
       <c r="E84" s="15"/>
@@ -2535,7 +2543,7 @@
         <v>2954.7</v>
       </c>
     </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:17">
       <c r="C85" s="14"/>
       <c r="D85" s="12"/>
       <c r="E85" s="15"/>
@@ -2564,7 +2572,7 @@
         <v>3221.4</v>
       </c>
     </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:17" ht="15">
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="L86" s="3"/>
@@ -2579,11 +2587,11 @@
         <v>49525.599999999999</v>
       </c>
     </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:17">
       <c r="H87" s="4"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:17">
       <c r="C88" s="2" t="s">
         <v>7</v>
       </c>
@@ -2609,8 +2617,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="89" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="90" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="3:17" ht="15" thickBot="1"/>
+    <row r="90" spans="3:17" ht="15.75" thickBot="1">
       <c r="C90" s="5" t="s">
         <v>4</v>
       </c>
@@ -2650,36 +2658,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43E34EB-AEEC-460A-AB3C-5DC183D86027}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q101"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="2"/>
-    <col min="2" max="2" width="3.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="3.1796875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="3.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11.453125" style="2"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="3.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="3.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="3:17" ht="15" thickBot="1"/>
+    <row r="2" spans="3:17" ht="15" thickBot="1">
       <c r="C2" s="32" t="s">
         <v>20</v>
       </c>
@@ -2700,7 +2708,7 @@
       <c r="P2" s="33"/>
       <c r="Q2" s="34"/>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:17" ht="15">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2738,7 +2746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:17">
       <c r="C5" s="31" t="s">
         <v>6</v>
       </c>
@@ -2780,7 +2788,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:17">
       <c r="C6" s="31" t="s">
         <v>13</v>
       </c>
@@ -2822,7 +2830,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:17">
       <c r="C7" s="31" t="s">
         <v>19</v>
       </c>
@@ -2864,7 +2872,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:17" ht="15">
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -2898,7 +2906,7 @@
         <v>1835.3999999999999</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:17">
       <c r="C9" s="14"/>
       <c r="D9" s="12"/>
       <c r="E9" s="15"/>
@@ -2927,7 +2935,7 @@
         <v>2410.3999999999996</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:17">
       <c r="C10" s="14"/>
       <c r="D10" s="12"/>
       <c r="E10" s="15"/>
@@ -2956,7 +2964,7 @@
         <v>1738.8</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:17">
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="L11" s="31" t="s">
@@ -2979,7 +2987,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:17">
       <c r="C12" s="14"/>
       <c r="D12" s="12"/>
       <c r="E12" s="15"/>
@@ -3008,7 +3016,7 @@
         <v>1386.8999999999999</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:17">
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
       <c r="E13" s="15"/>
@@ -3037,7 +3045,7 @@
         <v>1688.4</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:17">
       <c r="C14" s="14"/>
       <c r="D14" s="12"/>
       <c r="E14" s="15"/>
@@ -3066,7 +3074,7 @@
         <v>1899.8</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:17" ht="15">
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="L15" s="3"/>
@@ -3081,11 +3089,11 @@
         <v>30109.700000000004</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:17">
       <c r="H16" s="4"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="3:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:17" ht="15.6" customHeight="1">
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3111,7 +3119,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:17" ht="15.6" customHeight="1">
       <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
@@ -3137,7 +3145,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:17" ht="15.6" customHeight="1">
       <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
@@ -3163,7 +3171,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="20" spans="3:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:17" ht="15.6" customHeight="1">
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
@@ -3189,8 +3197,8 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:17" ht="15" thickBot="1"/>
+    <row r="22" spans="3:17" ht="15.75" thickBot="1">
       <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
@@ -3214,11 +3222,11 @@
         <v>38809.700000000004</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:17" ht="15">
       <c r="Q26" s="22"/>
     </row>
-    <row r="27" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:17" ht="15" thickBot="1"/>
+    <row r="28" spans="3:17" ht="15" thickBot="1">
       <c r="C28" s="32" t="s">
         <v>22</v>
       </c>
@@ -3239,7 +3247,7 @@
       <c r="P28" s="33"/>
       <c r="Q28" s="34"/>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:17" ht="15">
       <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
@@ -3277,7 +3285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:17">
       <c r="C31" s="31" t="s">
         <v>6</v>
       </c>
@@ -3319,7 +3327,7 @@
         <v>6899.9999999999991</v>
       </c>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:17">
       <c r="C32" s="31" t="s">
         <v>13</v>
       </c>
@@ -3361,7 +3369,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:17">
       <c r="C33" s="31" t="s">
         <v>19</v>
       </c>
@@ -3403,7 +3411,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:17" ht="15">
       <c r="C34" s="3"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -3437,7 +3445,7 @@
         <v>2074.8000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:17">
       <c r="C35" s="14"/>
       <c r="D35" s="12"/>
       <c r="E35" s="15"/>
@@ -3466,7 +3474,7 @@
         <v>2724.8</v>
       </c>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:17">
       <c r="C36" s="14"/>
       <c r="D36" s="12"/>
       <c r="E36" s="15"/>
@@ -3495,7 +3503,7 @@
         <v>1965.6000000000001</v>
       </c>
     </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:17">
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="L37" s="31" t="s">
@@ -3518,7 +3526,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:17">
       <c r="C38" s="14"/>
       <c r="D38" s="12"/>
       <c r="E38" s="15"/>
@@ -3547,7 +3555,7 @@
         <v>1567.8</v>
       </c>
     </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:17">
       <c r="C39" s="14"/>
       <c r="D39" s="12"/>
       <c r="E39" s="15"/>
@@ -3576,7 +3584,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:17">
       <c r="C40" s="14"/>
       <c r="D40" s="12"/>
       <c r="E40" s="15"/>
@@ -3605,7 +3613,7 @@
         <v>2147.6</v>
       </c>
     </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:17" ht="15">
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="L41" s="3"/>
@@ -3620,11 +3628,11 @@
         <v>34556.6</v>
       </c>
     </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:17">
       <c r="H42" s="4"/>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:17">
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
@@ -3650,7 +3658,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:17">
       <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
@@ -3676,7 +3684,7 @@
         <v>3850</v>
       </c>
     </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:17">
       <c r="C45" s="2" t="s">
         <v>28</v>
       </c>
@@ -3702,7 +3710,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:17">
       <c r="C46" s="2" t="s">
         <v>29</v>
       </c>
@@ -3728,8 +3736,8 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="47" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:17" ht="15" thickBot="1"/>
+    <row r="48" spans="3:17" ht="15.75" thickBot="1">
       <c r="C48" s="5" t="s">
         <v>4</v>
       </c>
@@ -3753,8 +3761,8 @@
         <v>47606.6</v>
       </c>
     </row>
-    <row r="54" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:17" ht="15" thickBot="1"/>
+    <row r="55" spans="3:17" ht="15" thickBot="1">
       <c r="C55" s="32" t="s">
         <v>24</v>
       </c>
@@ -3775,7 +3783,7 @@
       <c r="P55" s="33"/>
       <c r="Q55" s="34"/>
     </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:17" ht="15">
       <c r="C57" s="1" t="s">
         <v>1</v>
       </c>
@@ -3813,7 +3821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:17">
       <c r="C58" s="31" t="s">
         <v>6</v>
       </c>
@@ -3855,7 +3863,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:17">
       <c r="C59" s="31" t="s">
         <v>13</v>
       </c>
@@ -3897,7 +3905,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:17">
       <c r="C60" s="31" t="s">
         <v>19</v>
       </c>
@@ -3939,7 +3947,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:17" ht="15">
       <c r="C61" s="3"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
@@ -3973,7 +3981,7 @@
         <v>2553.6000000000004</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:17">
       <c r="C62" s="14"/>
       <c r="D62" s="12"/>
       <c r="E62" s="15"/>
@@ -4002,7 +4010,7 @@
         <v>3353.6000000000004</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:17">
       <c r="C63" s="14"/>
       <c r="D63" s="12"/>
       <c r="E63" s="15"/>
@@ -4031,7 +4039,7 @@
         <v>2419.2000000000003</v>
       </c>
     </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:17">
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="L64" s="31" t="s">
@@ -4054,7 +4062,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:17">
       <c r="C65" s="14"/>
       <c r="D65" s="12"/>
       <c r="E65" s="15"/>
@@ -4083,7 +4091,7 @@
         <v>1929.6000000000001</v>
       </c>
     </row>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:17">
       <c r="C66" s="14"/>
       <c r="D66" s="12"/>
       <c r="E66" s="15"/>
@@ -4112,7 +4120,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="67" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:17">
       <c r="C67" s="14"/>
       <c r="D67" s="12"/>
       <c r="E67" s="15"/>
@@ -4141,7 +4149,7 @@
         <v>2643.2000000000003</v>
       </c>
     </row>
-    <row r="68" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:17" ht="15">
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="L68" s="3"/>
@@ -4156,11 +4164,11 @@
         <v>41244.19999999999</v>
       </c>
     </row>
-    <row r="69" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:17">
       <c r="H69" s="4"/>
       <c r="Q69" s="4"/>
     </row>
-    <row r="70" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:17">
       <c r="C70" s="2" t="s">
         <v>7</v>
       </c>
@@ -4186,7 +4194,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:17">
       <c r="C71" s="2" t="s">
         <v>27</v>
       </c>
@@ -4212,7 +4220,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="72" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:17">
       <c r="C72" s="2" t="s">
         <v>28</v>
       </c>
@@ -4238,7 +4246,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="73" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:17">
       <c r="C73" s="2" t="s">
         <v>29</v>
       </c>
@@ -4264,8 +4272,8 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="74" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="75" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="3:17" ht="15" thickBot="1"/>
+    <row r="75" spans="3:17" ht="15.75" thickBot="1">
       <c r="C75" s="5" t="s">
         <v>4</v>
       </c>
@@ -4289,8 +4297,8 @@
         <v>58144.19999999999</v>
       </c>
     </row>
-    <row r="80" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="81" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="3:17" ht="15" thickBot="1"/>
+    <row r="81" spans="3:17" ht="15" thickBot="1">
       <c r="C81" s="32" t="s">
         <v>26</v>
       </c>
@@ -4311,7 +4319,7 @@
       <c r="P81" s="33"/>
       <c r="Q81" s="34"/>
     </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:17" ht="15">
       <c r="C83" s="1" t="s">
         <v>1</v>
       </c>
@@ -4349,7 +4357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:17">
       <c r="C84" s="31" t="s">
         <v>6</v>
       </c>
@@ -4391,7 +4399,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:17">
       <c r="C85" s="31" t="s">
         <v>13</v>
       </c>
@@ -4433,7 +4441,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:17">
       <c r="C86" s="31" t="s">
         <v>19</v>
       </c>
@@ -4475,7 +4483,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:17" ht="15">
       <c r="C87" s="3"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10"/>
@@ -4509,7 +4517,7 @@
         <v>3112.2</v>
       </c>
     </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:17">
       <c r="C88" s="14"/>
       <c r="D88" s="12"/>
       <c r="E88" s="15"/>
@@ -4538,7 +4546,7 @@
         <v>4087.2</v>
       </c>
     </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:17">
       <c r="C89" s="14"/>
       <c r="D89" s="12"/>
       <c r="E89" s="15"/>
@@ -4567,7 +4575,7 @@
         <v>2948.4</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:17">
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="L90" s="31" t="s">
@@ -4590,7 +4598,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:17">
       <c r="C91" s="14"/>
       <c r="D91" s="12"/>
       <c r="E91" s="15"/>
@@ -4619,7 +4627,7 @@
         <v>2351.6999999999998</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:17">
       <c r="C92" s="14"/>
       <c r="D92" s="12"/>
       <c r="E92" s="15"/>
@@ -4648,7 +4656,7 @@
         <v>2954.7</v>
       </c>
     </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:17">
       <c r="C93" s="14"/>
       <c r="D93" s="12"/>
       <c r="E93" s="15"/>
@@ -4677,7 +4685,7 @@
         <v>3221.4</v>
       </c>
     </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:17" ht="15">
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="L94" s="3"/>
@@ -4692,11 +4700,11 @@
         <v>49525.599999999999</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:17">
       <c r="H95" s="4"/>
       <c r="Q95" s="4"/>
     </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:17">
       <c r="C96" s="2" t="s">
         <v>7</v>
       </c>
@@ -4722,7 +4730,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:17">
       <c r="C97" s="2" t="s">
         <v>27</v>
       </c>
@@ -4748,7 +4756,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:17">
       <c r="C98" s="2" t="s">
         <v>28</v>
       </c>
@@ -4774,7 +4782,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:17">
       <c r="C99" s="2" t="s">
         <v>29</v>
       </c>
@@ -4800,8 +4808,8 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="100" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="101" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="3:17" ht="15" thickBot="1"/>
+    <row r="101" spans="3:17" ht="15.75" thickBot="1">
       <c r="C101" s="5" t="s">
         <v>4</v>
       </c>
